--- a/medicine/Enfance/Le_Réveil_de_Scorpia/Le_Réveil_de_Scorpia.xlsx
+++ b/medicine/Enfance/Le_Réveil_de_Scorpia/Le_Réveil_de_Scorpia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_R%C3%A9veil_de_Scorpia</t>
+          <t>Le_Réveil_de_Scorpia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réveil de Scorpia (titre original : Scorpia Rising)  est le neuvième roman de la série Alex Rider écrite par Anthony Horowitz. Il a été publié le 31 mars 2011 au Royaume-Uni puis le 1er juin 2011 en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_R%C3%A9veil_de_Scorpia</t>
+          <t>Le_Réveil_de_Scorpia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scorpia, cet organisme de l’ombre qui a fait tuer les parents d’Alex Rider décide de se venger de lui en frappant un grand coup . Le MI6 inquiété par une fusillade ayant lieu dans l'école d'Alex lui conseille des vacances au Caire. Pensant y trouver le calme Alex va se retrouver face à la plus périlleuses des épreuves pour espérer rester en vie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_R%C3%A9veil_de_Scorpia</t>
+          <t>Le_Réveil_de_Scorpia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>alex rider[1]
-alan blunt[2]
-m. jones[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>alex rider
+alan blunt
+m. jones</t>
         </is>
       </c>
     </row>
